--- a/biology/Botanique/Phlomis_de_Russell/Phlomis_de_Russell.xlsx
+++ b/biology/Botanique/Phlomis_de_Russell/Phlomis_de_Russell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomis russeliana
-Le phlomis de Russell (phlomis de Turquie[1] ou encore sauge de Turquie[1]) est une plante vivace méditerranéenne appartenant au genre Phlomis et à la famille des Lamiacées, dont les fleurs ont une corolle zygomorphe à deux lèvres.
-Il est endémique de Turquie[1] où il pousse dans les bois clairs[1]. Ses fleurs sont pollinisées par les bourdons[1].
+Le phlomis de Russell (phlomis de Turquie ou encore sauge de Turquie) est une plante vivace méditerranéenne appartenant au genre Phlomis et à la famille des Lamiacées, dont les fleurs ont une corolle zygomorphe à deux lèvres.
+Il est endémique de Turquie où il pousse dans les bois clairs. Ses fleurs sont pollinisées par les bourdons.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cultivé dans les jardins d'ornement pour son feuillage et sa longue floraison jaune. Contrairement aux autres phlomis et à l'instar de Phlomis samia il apprécie un léger ombrage. Il tolère la sécheresse mais en climat chaud et sec, il est préférable de ne pas le planter en plein soleil.
 Sur les autres projets Wikimedia :
